--- a/RegressaoLinear/Regressao.xlsx
+++ b/RegressaoLinear/Regressao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\zOutros_Materiais\N\MateriaisParaEstudo\RegressaoLinear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GD\DS\4Github\Github\RegressaoLinear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E14D148-D107-4538-899C-E757FA23D087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1138E2FC-4D50-4A68-A477-093744EB28A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AnaliseDados" sheetId="7" r:id="rId1"/>
@@ -24,12 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5736,8 +5730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -5793,7 +5787,7 @@
         <v>4.2130102040816322</v>
       </c>
       <c r="L3" s="1">
-        <f>SUM(L5:L15)</f>
+        <f>SUM(L5:L12)</f>
         <v>246</v>
       </c>
     </row>
@@ -6148,10 +6142,6 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L13" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="S13" s="1">
         <f t="shared" si="5"/>
         <v>1.4</v>
@@ -6162,10 +6152,6 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L14" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="S14" s="1">
         <f t="shared" si="5"/>
         <v>1.5999999999999999</v>
@@ -8347,8 +8333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459F585F-DC64-4BC5-84BC-B1B5EA1D4723}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
